--- a/biology/Zoologie/Gerygone/Gerygone.xlsx
+++ b/biology/Zoologie/Gerygone/Gerygone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerygone est un genre d’oiseaux passereaux de la famille des Acanthizidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l'étude phylogénique de Nyári et Joseph (2012), le Congrès ornithologique international, dans sa classification de référence (version 5.2, 2015), déplace l'ex Gérygone grise (Gerygone cinerea) dans le genre Acanthiza, où elle devient Acanthiza cinerea.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 14.1, 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 14.1, 2024) :
 Gerygone mouki – Gérygone brune
 Gerygone igata – Gérygone de Nouvelle-Zélande
 Gerygone modesta – Gérygone de Norfolk
